--- a/Code/Results/Cases/Case_2_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7657408932790304</v>
+        <v>0.2719510070050148</v>
       </c>
       <c r="C2">
-        <v>0.1360617529072812</v>
+        <v>0.04192620222919174</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3380027974262134</v>
+        <v>0.395888443509115</v>
       </c>
       <c r="F2">
-        <v>1.722668112721394</v>
+        <v>2.482631370127592</v>
       </c>
       <c r="G2">
-        <v>0.6309633910828296</v>
+        <v>0.9367928068124769</v>
       </c>
       <c r="H2">
-        <v>0.4802169294038663</v>
+        <v>0.9788314240462199</v>
       </c>
       <c r="I2">
-        <v>0.4457202488505878</v>
+        <v>0.8155962367436231</v>
       </c>
       <c r="J2">
-        <v>0.03800836792709572</v>
+        <v>0.07284871740412902</v>
       </c>
       <c r="K2">
-        <v>0.8588704051103946</v>
+        <v>0.2930086416530742</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5690971636934989</v>
+        <v>0.3782657008355841</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6651510217936618</v>
+        <v>0.2423707676603328</v>
       </c>
       <c r="C3">
-        <v>0.1180921600815878</v>
+        <v>0.0366973643492372</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3006022200976943</v>
+        <v>0.3882734587432708</v>
       </c>
       <c r="F3">
-        <v>1.601661962043465</v>
+        <v>2.468090838625741</v>
       </c>
       <c r="G3">
-        <v>0.6145975320149972</v>
+        <v>0.9393248354716519</v>
       </c>
       <c r="H3">
-        <v>0.4806604571726609</v>
+        <v>0.9847937332924346</v>
       </c>
       <c r="I3">
-        <v>0.4486558670101033</v>
+        <v>0.8215949119766819</v>
       </c>
       <c r="J3">
-        <v>0.03988418014984596</v>
+        <v>0.07357365049769471</v>
       </c>
       <c r="K3">
-        <v>0.745913928623807</v>
+        <v>0.2598701233779792</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4956162831931508</v>
+        <v>0.3597497190560048</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6035917068441563</v>
+        <v>0.2242431601743533</v>
       </c>
       <c r="C4">
-        <v>0.1071253829780261</v>
+        <v>0.03348659013961708</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2779635017136428</v>
+        <v>0.3837728690030815</v>
       </c>
       <c r="F4">
-        <v>1.530259570110701</v>
+        <v>2.460501578136672</v>
       </c>
       <c r="G4">
-        <v>0.6060739291250314</v>
+        <v>0.9414815795330043</v>
       </c>
       <c r="H4">
-        <v>0.4818162777025918</v>
+        <v>0.9888943725769366</v>
       </c>
       <c r="I4">
-        <v>0.4514223638886428</v>
+        <v>0.8257062547252794</v>
       </c>
       <c r="J4">
-        <v>0.04108364475764825</v>
+        <v>0.07404177443787008</v>
       </c>
       <c r="K4">
-        <v>0.6768239760724128</v>
+        <v>0.2395528692035072</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.450882815932097</v>
+        <v>0.3485475407146978</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5785441792266681</v>
+        <v>0.2168650648345363</v>
       </c>
       <c r="C5">
-        <v>0.1026696842620964</v>
+        <v>0.03217810945902499</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2688123417331028</v>
+        <v>0.3819829294790225</v>
       </c>
       <c r="F5">
-        <v>1.501843134062042</v>
+        <v>2.457745385411258</v>
       </c>
       <c r="G5">
-        <v>0.6029626865620372</v>
+        <v>0.9425115979926915</v>
       </c>
       <c r="H5">
-        <v>0.4824999658246583</v>
+        <v>0.9906759742264057</v>
       </c>
       <c r="I5">
-        <v>0.4527813176084017</v>
+        <v>0.8274892137811207</v>
       </c>
       <c r="J5">
-        <v>0.04158417875936227</v>
+        <v>0.0742383261036228</v>
       </c>
       <c r="K5">
-        <v>0.6487204207457751</v>
+        <v>0.2312812165130111</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4327378595771521</v>
+        <v>0.3440246333372556</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5743870185195021</v>
+        <v>0.2156404935295768</v>
       </c>
       <c r="C6">
-        <v>0.1019305300306428</v>
+        <v>0.0319608333203405</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2672970749708412</v>
+        <v>0.3816883762887642</v>
       </c>
       <c r="F6">
-        <v>1.497164375472792</v>
+        <v>2.457308041306263</v>
       </c>
       <c r="G6">
-        <v>0.6024673426980343</v>
+        <v>0.9426917516976516</v>
       </c>
       <c r="H6">
-        <v>0.4826260702551224</v>
+        <v>0.9909784845956864</v>
       </c>
       <c r="I6">
-        <v>0.453020652824069</v>
+        <v>0.8277917657077758</v>
       </c>
       <c r="J6">
-        <v>0.04166799413258049</v>
+        <v>0.07427131292451894</v>
       </c>
       <c r="K6">
-        <v>0.6440564974197827</v>
+        <v>0.2299081935343281</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.429729649608575</v>
+        <v>0.3432761535042133</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.603253767911383</v>
+        <v>0.224143619541195</v>
       </c>
       <c r="C7">
-        <v>0.1070652421421272</v>
+        <v>0.03346894377315834</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2778397947355629</v>
+        <v>0.3837485506489031</v>
       </c>
       <c r="F7">
-        <v>1.529873641186256</v>
+        <v>2.460463044890076</v>
       </c>
       <c r="G7">
-        <v>0.6060305305825011</v>
+        <v>0.941494859169282</v>
       </c>
       <c r="H7">
-        <v>0.4818246491500844</v>
+        <v>0.9889179522682241</v>
       </c>
       <c r="I7">
-        <v>0.4514397674044162</v>
+        <v>0.8257298649949369</v>
       </c>
       <c r="J7">
-        <v>0.04109034791354338</v>
+        <v>0.07404440176876559</v>
       </c>
       <c r="K7">
-        <v>0.6764447745472921</v>
+        <v>0.2394412828905104</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4506377810961695</v>
+        <v>0.3484863726575398</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7310073799671102</v>
+        <v>0.2617446958370806</v>
       </c>
       <c r="C8">
-        <v>0.1298498876595602</v>
+        <v>0.04012334712983545</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3250348645721104</v>
+        <v>0.3932265063789089</v>
       </c>
       <c r="F8">
-        <v>1.680314613284168</v>
+        <v>2.477339860636206</v>
       </c>
       <c r="G8">
-        <v>0.6249906984118923</v>
+        <v>0.9375407284091892</v>
       </c>
       <c r="H8">
-        <v>0.4801806106208488</v>
+        <v>0.9807959423528416</v>
       </c>
       <c r="I8">
-        <v>0.4465256611591499</v>
+        <v>0.8175756584754907</v>
       </c>
       <c r="J8">
-        <v>0.03864508840674108</v>
+        <v>0.07309389871424732</v>
       </c>
       <c r="K8">
-        <v>0.8198580752961391</v>
+        <v>0.2815764177312587</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5436735850580163</v>
+        <v>0.3718468733052092</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9837718282136052</v>
+        <v>0.335746628666783</v>
       </c>
       <c r="C9">
-        <v>0.1752262363115591</v>
+        <v>0.05317142656188878</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4205336013857277</v>
+        <v>0.4131998845196065</v>
       </c>
       <c r="F9">
-        <v>2.000613027716597</v>
+        <v>2.521068117812021</v>
       </c>
       <c r="G9">
-        <v>0.6752997670717491</v>
+        <v>0.934576832791663</v>
       </c>
       <c r="H9">
-        <v>0.4844237193584462</v>
+        <v>0.9683593627620866</v>
       </c>
       <c r="I9">
-        <v>0.4450586914136352</v>
+        <v>0.8049872332842867</v>
       </c>
       <c r="J9">
-        <v>0.03424066574251183</v>
+        <v>0.07141249250464909</v>
       </c>
       <c r="K9">
-        <v>1.103971404668016</v>
+        <v>0.3644333248334988</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.729766362966231</v>
+        <v>0.4189756465396641</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.171799220187353</v>
+        <v>0.3902709570770924</v>
       </c>
       <c r="C10">
-        <v>0.2092427409218516</v>
+        <v>0.06275917020026611</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4930511584015065</v>
+        <v>0.4287197050049301</v>
       </c>
       <c r="F10">
-        <v>2.254818653530052</v>
+        <v>2.559699994414956</v>
       </c>
       <c r="G10">
-        <v>0.7218020694637204</v>
+        <v>0.9353388256778459</v>
       </c>
       <c r="H10">
-        <v>0.4927768414651297</v>
+        <v>0.9613526366291296</v>
       </c>
       <c r="I10">
-        <v>0.4497380650097611</v>
+        <v>0.7978195821231608</v>
       </c>
       <c r="J10">
-        <v>0.03126109382280218</v>
+        <v>0.07028830954720888</v>
       </c>
       <c r="K10">
-        <v>1.315640157380983</v>
+        <v>0.4254448658978163</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8696277899211822</v>
+        <v>0.4544040956145494</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.258074799469995</v>
+        <v>0.4151080169842487</v>
       </c>
       <c r="C11">
-        <v>0.2249275173957557</v>
+        <v>0.06712167302778482</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.526688282202926</v>
+        <v>0.4359637336215414</v>
       </c>
       <c r="F11">
-        <v>2.375406877891919</v>
+        <v>2.578692453103386</v>
       </c>
       <c r="G11">
-        <v>0.745401810076558</v>
+        <v>0.93632803354933</v>
       </c>
       <c r="H11">
-        <v>0.4978798923095553</v>
+        <v>0.9586282779710444</v>
       </c>
       <c r="I11">
-        <v>0.4533052550748735</v>
+        <v>0.7950122893103853</v>
       </c>
       <c r="J11">
-        <v>0.02996574453923251</v>
+        <v>0.06980099685388597</v>
       </c>
       <c r="K11">
-        <v>1.412856876208508</v>
+        <v>0.4532299083733733</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9341588583681073</v>
+        <v>0.4706958140047846</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.290872577002773</v>
+        <v>0.424517786905426</v>
       </c>
       <c r="C12">
-        <v>0.2309028945796427</v>
+        <v>0.06877380141416722</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.539531334782609</v>
+        <v>0.4387332801131123</v>
       </c>
       <c r="F12">
-        <v>2.421858874918385</v>
+        <v>2.586088693113467</v>
       </c>
       <c r="G12">
-        <v>0.7547241715903539</v>
+        <v>0.9367953434229861</v>
       </c>
       <c r="H12">
-        <v>0.5000148887827152</v>
+        <v>0.9576632630787145</v>
       </c>
       <c r="I12">
-        <v>0.4548801395088518</v>
+        <v>0.7940145527006877</v>
       </c>
       <c r="J12">
-        <v>0.02948428889506638</v>
+        <v>0.06961992691064278</v>
       </c>
       <c r="K12">
-        <v>1.449829522936142</v>
+        <v>0.4637556109091463</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9587457050983588</v>
+        <v>0.4768901642909142</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.283802990344213</v>
+        <v>0.4224910289935906</v>
       </c>
       <c r="C13">
-        <v>0.2296142986753296</v>
+        <v>0.06841797961574514</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5367604607460024</v>
+        <v>0.438135636069191</v>
       </c>
       <c r="F13">
-        <v>2.411818280958698</v>
+        <v>2.584486694891808</v>
       </c>
       <c r="G13">
-        <v>0.752698709670895</v>
+        <v>0.9366905711615772</v>
       </c>
       <c r="H13">
-        <v>0.499545813170613</v>
+        <v>0.9578681315351503</v>
       </c>
       <c r="I13">
-        <v>0.4545307046589997</v>
+        <v>0.7942265255990719</v>
       </c>
       <c r="J13">
-        <v>0.02958756858684541</v>
+        <v>0.06965876943870342</v>
       </c>
       <c r="K13">
-        <v>1.44185931131679</v>
+        <v>0.4614885343081028</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9534434668272525</v>
+        <v>0.4755549893515649</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.260770421338293</v>
+        <v>0.4158820758086961</v>
       </c>
       <c r="C14">
-        <v>0.2254183618482415</v>
+        <v>0.06725759174636892</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5277427019932404</v>
+        <v>0.4361910573606522</v>
       </c>
       <c r="F14">
-        <v>2.37921226152514</v>
+        <v>2.579296852368032</v>
       </c>
       <c r="G14">
-        <v>0.7461608322270905</v>
+        <v>0.9363646193855999</v>
       </c>
       <c r="H14">
-        <v>0.4980513880014144</v>
+        <v>0.958547549711966</v>
       </c>
       <c r="I14">
-        <v>0.4534302272936159</v>
+        <v>0.7949288949261017</v>
       </c>
       <c r="J14">
-        <v>0.02992595062954728</v>
+        <v>0.06978603067173728</v>
       </c>
       <c r="K14">
-        <v>1.415895302300271</v>
+        <v>0.4540957835275208</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9361785002358474</v>
+        <v>0.4712049261707563</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.246679498244873</v>
+        <v>0.4118344793920699</v>
       </c>
       <c r="C15">
-        <v>0.2228530794949393</v>
+        <v>0.06654683935987293</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5222331699249381</v>
+        <v>0.4350033815555889</v>
       </c>
       <c r="F15">
-        <v>2.359345110500513</v>
+        <v>2.576144524199961</v>
       </c>
       <c r="G15">
-        <v>0.7422074752108898</v>
+        <v>0.9361770485788981</v>
       </c>
       <c r="H15">
-        <v>0.4971628648402486</v>
+        <v>0.9589723932264604</v>
       </c>
       <c r="I15">
-        <v>0.4527858691350986</v>
+        <v>0.7953676276983117</v>
       </c>
       <c r="J15">
-        <v>0.03013441328316158</v>
+        <v>0.06986443311898283</v>
       </c>
       <c r="K15">
-        <v>1.400013067741014</v>
+        <v>0.449568036942253</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9256234061860908</v>
+        <v>0.4685436419612827</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.166177534110375</v>
+        <v>0.3886484462787507</v>
       </c>
       <c r="C16">
-        <v>0.2082224086365301</v>
+        <v>0.0624740903686245</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4908669574421864</v>
+        <v>0.4282499872166809</v>
       </c>
       <c r="F16">
-        <v>2.247043878821216</v>
+        <v>2.558487356975334</v>
       </c>
       <c r="G16">
-        <v>0.7203118215184361</v>
+        <v>0.935287135944364</v>
       </c>
       <c r="H16">
-        <v>0.4924708369509148</v>
+        <v>0.9615400021670553</v>
       </c>
       <c r="I16">
-        <v>0.4495353256205163</v>
+        <v>0.7980121789112715</v>
       </c>
       <c r="J16">
-        <v>0.03134699233191562</v>
+        <v>0.07032064133755966</v>
       </c>
       <c r="K16">
-        <v>1.309307602307342</v>
+        <v>0.4236296387938125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8654304495901144</v>
+        <v>0.4533429044925725</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.116996033389199</v>
+        <v>0.3744329557913488</v>
       </c>
       <c r="C17">
-        <v>0.1993047203507388</v>
+        <v>0.05997584485901086</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4717992171530767</v>
+        <v>0.4241540736461289</v>
       </c>
       <c r="F17">
-        <v>2.179470414166218</v>
+        <v>2.548018750591595</v>
       </c>
       <c r="G17">
-        <v>0.7075292022546762</v>
+        <v>0.9349060075085021</v>
       </c>
       <c r="H17">
-        <v>0.4899366052694347</v>
+        <v>0.963233781818289</v>
       </c>
       <c r="I17">
-        <v>0.4479214559519136</v>
+        <v>0.7997507273531994</v>
       </c>
       <c r="J17">
-        <v>0.03210654763425569</v>
+        <v>0.070606679826279</v>
       </c>
       <c r="K17">
-        <v>1.253917692899705</v>
+        <v>0.4077248995537559</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8287500138734885</v>
+        <v>0.4440624911996522</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.088776548804759</v>
+        <v>0.3662597701652999</v>
       </c>
       <c r="C18">
-        <v>0.1941949489109902</v>
+        <v>0.05853901323857258</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4608922116138885</v>
+        <v>0.4218155339109586</v>
       </c>
       <c r="F18">
-        <v>2.141064813526498</v>
+        <v>2.542130999940795</v>
       </c>
       <c r="G18">
-        <v>0.7004049714788749</v>
+        <v>0.9347472556221135</v>
       </c>
       <c r="H18">
-        <v>0.4886006598578803</v>
+        <v>0.9642515788010257</v>
       </c>
       <c r="I18">
-        <v>0.4471274882502243</v>
+        <v>0.8007933535554912</v>
       </c>
       <c r="J18">
-        <v>0.03254905031160149</v>
+        <v>0.0707734683768062</v>
       </c>
       <c r="K18">
-        <v>1.222144539252525</v>
+        <v>0.3985798102070248</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.807736519739592</v>
+        <v>0.4387411370150716</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.079233068961287</v>
+        <v>0.3634930275929094</v>
       </c>
       <c r="C19">
-        <v>0.192468045112733</v>
+        <v>0.05805254271453464</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4572092826943788</v>
+        <v>0.4210267215540711</v>
       </c>
       <c r="F19">
-        <v>2.128138275025961</v>
+        <v>2.540160433627619</v>
       </c>
       <c r="G19">
-        <v>0.6980309988827571</v>
+        <v>0.934703879899601</v>
       </c>
       <c r="H19">
-        <v>0.4881687881818522</v>
+        <v>0.9646036705229477</v>
       </c>
       <c r="I19">
-        <v>0.4468812274408336</v>
+        <v>0.8011536913846129</v>
       </c>
       <c r="J19">
-        <v>0.03269982812232142</v>
+        <v>0.07083032938904799</v>
       </c>
       <c r="K19">
-        <v>1.211400668579273</v>
+        <v>0.3954839463094402</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8006355828454303</v>
+        <v>0.4369422555350155</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.122224264347835</v>
+        <v>0.3759458914019262</v>
       </c>
       <c r="C20">
-        <v>0.2002519717059954</v>
+        <v>0.06024177771685402</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4738226899448463</v>
+        <v>0.4245882984224565</v>
       </c>
       <c r="F20">
-        <v>2.186615495356676</v>
+        <v>2.549119331792269</v>
       </c>
       <c r="G20">
-        <v>0.7088661004887342</v>
+        <v>0.9349403192756398</v>
       </c>
       <c r="H20">
-        <v>0.4901936795115063</v>
+        <v>0.9630489653335701</v>
       </c>
       <c r="I20">
-        <v>0.4480792368408473</v>
+        <v>0.7995612398341692</v>
       </c>
       <c r="J20">
-        <v>0.03202510638440725</v>
+        <v>0.07057599592697761</v>
       </c>
       <c r="K20">
-        <v>1.259805001091394</v>
+        <v>0.4094176885710397</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8326458642393462</v>
+        <v>0.4450487010882256</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.267532023498831</v>
+        <v>0.4178231656383673</v>
       </c>
       <c r="C21">
-        <v>0.2266497886626269</v>
+        <v>0.06759842189555343</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5303884735304862</v>
+        <v>0.4367615115725911</v>
       </c>
       <c r="F21">
-        <v>2.388767417097341</v>
+        <v>2.580815691076467</v>
       </c>
       <c r="G21">
-        <v>0.7480704134276124</v>
+        <v>0.9364578404488242</v>
       </c>
       <c r="H21">
-        <v>0.4984847112690716</v>
+        <v>0.9583461790631986</v>
       </c>
       <c r="I21">
-        <v>0.453747238570493</v>
+        <v>0.7947208180374616</v>
       </c>
       <c r="J21">
-        <v>0.02982630999852942</v>
+        <v>0.06974855691612181</v>
       </c>
       <c r="K21">
-        <v>1.423517038121901</v>
+        <v>0.4562671043754563</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9412453925760573</v>
+        <v>0.4724819670893012</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.363250655774692</v>
+        <v>0.4452185484530844</v>
       </c>
       <c r="C22">
-        <v>0.2441144958671089</v>
+        <v>0.07240724977391721</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5679782918528531</v>
+        <v>0.4448712012992999</v>
       </c>
       <c r="F22">
-        <v>2.525517898305097</v>
+        <v>2.602721474684856</v>
       </c>
       <c r="G22">
-        <v>0.7759585153997932</v>
+        <v>0.9379902085860437</v>
       </c>
       <c r="H22">
-        <v>0.5050922087221323</v>
+        <v>0.9556610955330314</v>
       </c>
       <c r="I22">
-        <v>0.4587667163096256</v>
+        <v>0.7919381470356726</v>
       </c>
       <c r="J22">
-        <v>0.02844233519481332</v>
+        <v>0.06922797399075353</v>
       </c>
       <c r="K22">
-        <v>1.531451283044078</v>
+        <v>0.4869097300708063</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.013108215679445</v>
+        <v>0.4905570162260275</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.312087788274169</v>
+        <v>0.4305948305447487</v>
       </c>
       <c r="C23">
-        <v>0.234771838240647</v>
+        <v>0.06984061097659833</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5478547935767466</v>
+        <v>0.4405288571563659</v>
       </c>
       <c r="F23">
-        <v>2.452080758403412</v>
+        <v>2.590920955440836</v>
       </c>
       <c r="G23">
-        <v>0.7608547787624929</v>
+        <v>0.9371227870410479</v>
       </c>
       <c r="H23">
-        <v>0.5014515146254155</v>
+        <v>0.957058612256759</v>
       </c>
       <c r="I23">
-        <v>0.4559613148555499</v>
+        <v>0.7933884194287657</v>
       </c>
       <c r="J23">
-        <v>0.0291759813560557</v>
+        <v>0.06950397038273604</v>
       </c>
       <c r="K23">
-        <v>1.473749839684274</v>
+        <v>0.4705530986680913</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9746655120619678</v>
+        <v>0.4808967301374238</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.119860409432846</v>
+        <v>0.375261894779868</v>
       </c>
       <c r="C24">
-        <v>0.1998236664422848</v>
+        <v>0.06012155120598095</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.47290770657753</v>
+        <v>0.4243919347623617</v>
       </c>
       <c r="F24">
-        <v>2.183383829100478</v>
+        <v>2.548621351635546</v>
       </c>
       <c r="G24">
-        <v>0.708260991541934</v>
+        <v>0.9349246189148488</v>
       </c>
       <c r="H24">
-        <v>0.4900770804344745</v>
+        <v>0.9631323837433001</v>
       </c>
       <c r="I24">
-        <v>0.4480074884171188</v>
+        <v>0.7996467728575354</v>
       </c>
       <c r="J24">
-        <v>0.03206190786407426</v>
+        <v>0.07058986082464092</v>
       </c>
       <c r="K24">
-        <v>1.257143129044863</v>
+        <v>0.4086523825081656</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8308843194774482</v>
+        <v>0.4446027917328479</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9150583570551021</v>
+        <v>0.3156993931665966</v>
       </c>
       <c r="C25">
-        <v>0.1628512635737138</v>
+        <v>0.04964149280932872</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3943280795805748</v>
+        <v>0.4076480838395824</v>
       </c>
       <c r="F25">
-        <v>1.910915050272536</v>
+        <v>2.508097809685182</v>
       </c>
       <c r="G25">
-        <v>0.6601328014569958</v>
+        <v>0.9348638249147427</v>
       </c>
       <c r="H25">
-        <v>0.4824090677800399</v>
+        <v>0.9713498394891218</v>
       </c>
       <c r="I25">
-        <v>0.4445043086991518</v>
+        <v>0.8080277960892843</v>
       </c>
       <c r="J25">
-        <v>0.03538857023108477</v>
+        <v>0.07184783019465257</v>
       </c>
       <c r="K25">
-        <v>1.026687171494217</v>
+        <v>0.3419940992525312</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6789425471859261</v>
+        <v>0.4060849867553031</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2719510070050148</v>
+        <v>0.7657408932790304</v>
       </c>
       <c r="C2">
-        <v>0.04192620222919174</v>
+        <v>0.1360617529071959</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.395888443509115</v>
+        <v>0.3380027974262205</v>
       </c>
       <c r="F2">
-        <v>2.482631370127592</v>
+        <v>1.722668112721365</v>
       </c>
       <c r="G2">
-        <v>0.9367928068124769</v>
+        <v>0.6309633910828012</v>
       </c>
       <c r="H2">
-        <v>0.9788314240462199</v>
+        <v>0.4802169294038947</v>
       </c>
       <c r="I2">
-        <v>0.8155962367436231</v>
+        <v>0.4457202488505843</v>
       </c>
       <c r="J2">
-        <v>0.07284871740412902</v>
+        <v>0.03800836792711215</v>
       </c>
       <c r="K2">
-        <v>0.2930086416530742</v>
+        <v>0.8588704051104514</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3782657008355841</v>
+        <v>0.5690971636934918</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2423707676603328</v>
+        <v>0.665151021793605</v>
       </c>
       <c r="C3">
-        <v>0.0366973643492372</v>
+        <v>0.1180921600811189</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3882734587432708</v>
+        <v>0.3006022200976801</v>
       </c>
       <c r="F3">
-        <v>2.468090838625741</v>
+        <v>1.601661962043451</v>
       </c>
       <c r="G3">
-        <v>0.9393248354716519</v>
+        <v>0.6145975320150114</v>
       </c>
       <c r="H3">
-        <v>0.9847937332924346</v>
+        <v>0.4806604571726893</v>
       </c>
       <c r="I3">
-        <v>0.8215949119766819</v>
+        <v>0.4486558670101033</v>
       </c>
       <c r="J3">
-        <v>0.07357365049769471</v>
+        <v>0.0398841801498111</v>
       </c>
       <c r="K3">
-        <v>0.2598701233779792</v>
+        <v>0.745913928623736</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3597497190560048</v>
+        <v>0.4956162831931294</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2242431601743533</v>
+        <v>0.603591706844071</v>
       </c>
       <c r="C4">
-        <v>0.03348659013961708</v>
+        <v>0.1071253829779266</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3837728690030815</v>
+        <v>0.2779635017136215</v>
       </c>
       <c r="F4">
-        <v>2.460501578136672</v>
+        <v>1.530259570110701</v>
       </c>
       <c r="G4">
-        <v>0.9414815795330043</v>
+        <v>0.6060739291249604</v>
       </c>
       <c r="H4">
-        <v>0.9888943725769366</v>
+        <v>0.4818162777025918</v>
       </c>
       <c r="I4">
-        <v>0.8257062547252794</v>
+        <v>0.451422363888625</v>
       </c>
       <c r="J4">
-        <v>0.07404177443787008</v>
+        <v>0.04108364475775328</v>
       </c>
       <c r="K4">
-        <v>0.2395528692035072</v>
+        <v>0.676823976072356</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3485475407146978</v>
+        <v>0.4508828159320899</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2168650648345363</v>
+        <v>0.5785441792267818</v>
       </c>
       <c r="C5">
-        <v>0.03217810945902499</v>
+        <v>0.1026696842622243</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3819829294790225</v>
+        <v>0.2688123417330743</v>
       </c>
       <c r="F5">
-        <v>2.457745385411258</v>
+        <v>1.501843134062057</v>
       </c>
       <c r="G5">
-        <v>0.9425115979926915</v>
+        <v>0.6029626865621225</v>
       </c>
       <c r="H5">
-        <v>0.9906759742264057</v>
+        <v>0.4824999658247719</v>
       </c>
       <c r="I5">
-        <v>0.8274892137811207</v>
+        <v>0.4527813176083981</v>
       </c>
       <c r="J5">
-        <v>0.0742383261036228</v>
+        <v>0.04158417875932741</v>
       </c>
       <c r="K5">
-        <v>0.2312812165130111</v>
+        <v>0.6487204207457751</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3440246333372556</v>
+        <v>0.4327378595771378</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2156404935295768</v>
+        <v>0.574387018519559</v>
       </c>
       <c r="C6">
-        <v>0.0319608333203405</v>
+        <v>0.1019305300304296</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3816883762887642</v>
+        <v>0.267297074970827</v>
       </c>
       <c r="F6">
-        <v>2.457308041306263</v>
+        <v>1.497164375472806</v>
       </c>
       <c r="G6">
-        <v>0.9426917516976516</v>
+        <v>0.6024673426979916</v>
       </c>
       <c r="H6">
-        <v>0.9909784845956864</v>
+        <v>0.4826260702550229</v>
       </c>
       <c r="I6">
-        <v>0.8277917657077758</v>
+        <v>0.453020652824069</v>
       </c>
       <c r="J6">
-        <v>0.07427131292451894</v>
+        <v>0.04166799413256916</v>
       </c>
       <c r="K6">
-        <v>0.2299081935343281</v>
+        <v>0.6440564974196974</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3432761535042133</v>
+        <v>0.429729649608575</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.224143619541195</v>
+        <v>0.603253767911383</v>
       </c>
       <c r="C7">
-        <v>0.03346894377315834</v>
+        <v>0.1070652421421272</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3837485506489031</v>
+        <v>0.2778397947355202</v>
       </c>
       <c r="F7">
-        <v>2.460463044890076</v>
+        <v>1.529873641186242</v>
       </c>
       <c r="G7">
-        <v>0.941494859169282</v>
+        <v>0.6060305305824869</v>
       </c>
       <c r="H7">
-        <v>0.9889179522682241</v>
+        <v>0.4818246491500702</v>
       </c>
       <c r="I7">
-        <v>0.8257298649949369</v>
+        <v>0.4514397674044019</v>
       </c>
       <c r="J7">
-        <v>0.07404440176876559</v>
+        <v>0.04109034791352639</v>
       </c>
       <c r="K7">
-        <v>0.2394412828905104</v>
+        <v>0.6764447745474627</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3484863726575398</v>
+        <v>0.4506377810961837</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2617446958370806</v>
+        <v>0.7310073799670818</v>
       </c>
       <c r="C8">
-        <v>0.04012334712983545</v>
+        <v>0.129849887659816</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3932265063789089</v>
+        <v>0.3250348645721246</v>
       </c>
       <c r="F8">
-        <v>2.477339860636206</v>
+        <v>1.680314613284182</v>
       </c>
       <c r="G8">
-        <v>0.9375407284091892</v>
+        <v>0.6249906984119349</v>
       </c>
       <c r="H8">
-        <v>0.9807959423528416</v>
+        <v>0.480180610620863</v>
       </c>
       <c r="I8">
-        <v>0.8175756584754907</v>
+        <v>0.4465256611591535</v>
       </c>
       <c r="J8">
-        <v>0.07309389871424732</v>
+        <v>0.03864508840685088</v>
       </c>
       <c r="K8">
-        <v>0.2815764177312587</v>
+        <v>0.8198580752961391</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3718468733052092</v>
+        <v>0.5436735850580234</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.335746628666783</v>
+        <v>0.9837718282137189</v>
       </c>
       <c r="C9">
-        <v>0.05317142656188878</v>
+        <v>0.1752262363113033</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4131998845196065</v>
+        <v>0.4205336013857135</v>
       </c>
       <c r="F9">
-        <v>2.521068117812021</v>
+        <v>2.000613027716597</v>
       </c>
       <c r="G9">
-        <v>0.934576832791663</v>
+        <v>0.6752997670717207</v>
       </c>
       <c r="H9">
-        <v>0.9683593627620866</v>
+        <v>0.4844237193585599</v>
       </c>
       <c r="I9">
-        <v>0.8049872332842867</v>
+        <v>0.4450586914136494</v>
       </c>
       <c r="J9">
-        <v>0.07141249250464909</v>
+        <v>0.03424066574255935</v>
       </c>
       <c r="K9">
-        <v>0.3644333248334988</v>
+        <v>1.103971404668016</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4189756465396641</v>
+        <v>0.7297663629662381</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3902709570770924</v>
+        <v>1.171799220187239</v>
       </c>
       <c r="C10">
-        <v>0.06275917020026611</v>
+        <v>0.2092427409219653</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4287197050049301</v>
+        <v>0.4930511584015065</v>
       </c>
       <c r="F10">
-        <v>2.559699994414956</v>
+        <v>2.254818653530094</v>
       </c>
       <c r="G10">
-        <v>0.9353388256778459</v>
+        <v>0.7218020694636493</v>
       </c>
       <c r="H10">
-        <v>0.9613526366291296</v>
+        <v>0.4927768414652434</v>
       </c>
       <c r="I10">
-        <v>0.7978195821231608</v>
+        <v>0.4497380650097611</v>
       </c>
       <c r="J10">
-        <v>0.07028830954720888</v>
+        <v>0.0312610938228528</v>
       </c>
       <c r="K10">
-        <v>0.4254448658978163</v>
+        <v>1.31564015738104</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4544040956145494</v>
+        <v>0.8696277899212177</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4151080169842487</v>
+        <v>1.258074799469824</v>
       </c>
       <c r="C11">
-        <v>0.06712167302778482</v>
+        <v>0.2249275173954999</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4359637336215414</v>
+        <v>0.5266882822028975</v>
       </c>
       <c r="F11">
-        <v>2.578692453103386</v>
+        <v>2.375406877891933</v>
       </c>
       <c r="G11">
-        <v>0.93632803354933</v>
+        <v>0.7454018100765865</v>
       </c>
       <c r="H11">
-        <v>0.9586282779710444</v>
+        <v>0.4978798923095553</v>
       </c>
       <c r="I11">
-        <v>0.7950122893103853</v>
+        <v>0.4533052550748664</v>
       </c>
       <c r="J11">
-        <v>0.06980099685388597</v>
+        <v>0.02996574453916434</v>
       </c>
       <c r="K11">
-        <v>0.4532299083733733</v>
+        <v>1.412856876208565</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4706958140047846</v>
+        <v>0.9341588583681144</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.424517786905426</v>
+        <v>1.290872577002744</v>
       </c>
       <c r="C12">
-        <v>0.06877380141416722</v>
+        <v>0.2309028945799838</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4387332801131123</v>
+        <v>0.5395313347825805</v>
       </c>
       <c r="F12">
-        <v>2.586088693113467</v>
+        <v>2.421858874918371</v>
       </c>
       <c r="G12">
-        <v>0.9367953434229861</v>
+        <v>0.7547241715903539</v>
       </c>
       <c r="H12">
-        <v>0.9576632630787145</v>
+        <v>0.5000148887828288</v>
       </c>
       <c r="I12">
-        <v>0.7940145527006877</v>
+        <v>0.4548801395088589</v>
       </c>
       <c r="J12">
-        <v>0.06961992691064278</v>
+        <v>0.02948428889499954</v>
       </c>
       <c r="K12">
-        <v>0.4637556109091463</v>
+        <v>1.449829522936284</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4768901642909142</v>
+        <v>0.9587457050983446</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4224910289935906</v>
+        <v>1.283802990344128</v>
       </c>
       <c r="C13">
-        <v>0.06841797961574514</v>
+        <v>0.2296142986753438</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.438135636069191</v>
+        <v>0.5367604607459953</v>
       </c>
       <c r="F13">
-        <v>2.584486694891808</v>
+        <v>2.411818280958698</v>
       </c>
       <c r="G13">
-        <v>0.9366905711615772</v>
+        <v>0.7526987096709234</v>
       </c>
       <c r="H13">
-        <v>0.9578681315351503</v>
+        <v>0.499545813170613</v>
       </c>
       <c r="I13">
-        <v>0.7942265255990719</v>
+        <v>0.4545307046590068</v>
       </c>
       <c r="J13">
-        <v>0.06965876943870342</v>
+        <v>0.02958756858684808</v>
       </c>
       <c r="K13">
-        <v>0.4614885343081028</v>
+        <v>1.44185931131679</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4755549893515649</v>
+        <v>0.9534434668272453</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4158820758086961</v>
+        <v>1.260770421338322</v>
       </c>
       <c r="C14">
-        <v>0.06725759174636892</v>
+        <v>0.2254183618483552</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4361910573606522</v>
+        <v>0.5277427019932404</v>
       </c>
       <c r="F14">
-        <v>2.579296852368032</v>
+        <v>2.37921226152514</v>
       </c>
       <c r="G14">
-        <v>0.9363646193855999</v>
+        <v>0.7461608322270763</v>
       </c>
       <c r="H14">
-        <v>0.958547549711966</v>
+        <v>0.4980513880014144</v>
       </c>
       <c r="I14">
-        <v>0.7949288949261017</v>
+        <v>0.4534302272936088</v>
       </c>
       <c r="J14">
-        <v>0.06978603067173728</v>
+        <v>0.02992595062954573</v>
       </c>
       <c r="K14">
-        <v>0.4540957835275208</v>
+        <v>1.415895302300299</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4712049261707563</v>
+        <v>0.9361785002358758</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4118344793920699</v>
+        <v>1.24667949824493</v>
       </c>
       <c r="C15">
-        <v>0.06654683935987293</v>
+        <v>0.2228530794950387</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4350033815555889</v>
+        <v>0.5222331699249168</v>
       </c>
       <c r="F15">
-        <v>2.576144524199961</v>
+        <v>2.359345110500513</v>
       </c>
       <c r="G15">
-        <v>0.9361770485788981</v>
+        <v>0.7422074752108472</v>
       </c>
       <c r="H15">
-        <v>0.9589723932264604</v>
+        <v>0.4971628648402486</v>
       </c>
       <c r="I15">
-        <v>0.7953676276983117</v>
+        <v>0.4527858691351057</v>
       </c>
       <c r="J15">
-        <v>0.06986443311898283</v>
+        <v>0.03013441328320177</v>
       </c>
       <c r="K15">
-        <v>0.449568036942253</v>
+        <v>1.400013067741014</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4685436419612827</v>
+        <v>0.9256234061860695</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3886484462787507</v>
+        <v>1.166177534110346</v>
       </c>
       <c r="C16">
-        <v>0.0624740903686245</v>
+        <v>0.2082224086362743</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4282499872166809</v>
+        <v>0.4908669574421864</v>
       </c>
       <c r="F16">
-        <v>2.558487356975334</v>
+        <v>2.247043878821245</v>
       </c>
       <c r="G16">
-        <v>0.935287135944364</v>
+        <v>0.7203118215184219</v>
       </c>
       <c r="H16">
-        <v>0.9615400021670553</v>
+        <v>0.4924708369507869</v>
       </c>
       <c r="I16">
-        <v>0.7980121789112715</v>
+        <v>0.4495353256205163</v>
       </c>
       <c r="J16">
-        <v>0.07032064133755966</v>
+        <v>0.03134699233194516</v>
       </c>
       <c r="K16">
-        <v>0.4236296387938125</v>
+        <v>1.309307602307285</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4533429044925725</v>
+        <v>0.8654304495901144</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3744329557913488</v>
+        <v>1.116996033389285</v>
       </c>
       <c r="C17">
-        <v>0.05997584485901086</v>
+        <v>0.1993047203508382</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4241540736461289</v>
+        <v>0.4717992171531122</v>
       </c>
       <c r="F17">
-        <v>2.548018750591595</v>
+        <v>2.179470414166232</v>
       </c>
       <c r="G17">
-        <v>0.9349060075085021</v>
+        <v>0.7075292022546904</v>
       </c>
       <c r="H17">
-        <v>0.963233781818289</v>
+        <v>0.4899366052694347</v>
       </c>
       <c r="I17">
-        <v>0.7997507273531994</v>
+        <v>0.4479214559519491</v>
       </c>
       <c r="J17">
-        <v>0.070606679826279</v>
+        <v>0.03210654763426679</v>
       </c>
       <c r="K17">
-        <v>0.4077248995537559</v>
+        <v>1.253917692899762</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4440624911996522</v>
+        <v>0.8287500138734885</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3662597701652999</v>
+        <v>1.088776548804731</v>
       </c>
       <c r="C18">
-        <v>0.05853901323857258</v>
+        <v>0.194194948911246</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4218155339109586</v>
+        <v>0.4608922116138956</v>
       </c>
       <c r="F18">
-        <v>2.542130999940795</v>
+        <v>2.141064813526498</v>
       </c>
       <c r="G18">
-        <v>0.9347472556221135</v>
+        <v>0.7004049714788749</v>
       </c>
       <c r="H18">
-        <v>0.9642515788010257</v>
+        <v>0.4886006598578945</v>
       </c>
       <c r="I18">
-        <v>0.8007933535554912</v>
+        <v>0.4471274882502314</v>
       </c>
       <c r="J18">
-        <v>0.0707734683768062</v>
+        <v>0.03254905031165878</v>
       </c>
       <c r="K18">
-        <v>0.3985798102070248</v>
+        <v>1.222144539252497</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4387411370150716</v>
+        <v>0.807736519739592</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3634930275929094</v>
+        <v>1.079233068961202</v>
       </c>
       <c r="C19">
-        <v>0.05805254271453464</v>
+        <v>0.192468045113003</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4210267215540711</v>
+        <v>0.457209282694393</v>
       </c>
       <c r="F19">
-        <v>2.540160433627619</v>
+        <v>2.128138275025947</v>
       </c>
       <c r="G19">
-        <v>0.934703879899601</v>
+        <v>0.6980309988827145</v>
       </c>
       <c r="H19">
-        <v>0.9646036705229477</v>
+        <v>0.4881687881819659</v>
       </c>
       <c r="I19">
-        <v>0.8011536913846129</v>
+        <v>0.4468812274408407</v>
       </c>
       <c r="J19">
-        <v>0.07083032938904799</v>
+        <v>0.03269982812237204</v>
       </c>
       <c r="K19">
-        <v>0.3954839463094402</v>
+        <v>1.21140066857933</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4369422555350155</v>
+        <v>0.8006355828454375</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3759458914019262</v>
+        <v>1.122224264347693</v>
       </c>
       <c r="C20">
-        <v>0.06024177771685402</v>
+        <v>0.2002519717058817</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4245882984224565</v>
+        <v>0.4738226899448392</v>
       </c>
       <c r="F20">
-        <v>2.549119331792269</v>
+        <v>2.186615495356676</v>
       </c>
       <c r="G20">
-        <v>0.9349403192756398</v>
+        <v>0.7088661004887342</v>
       </c>
       <c r="H20">
-        <v>0.9630489653335701</v>
+        <v>0.49019367951162</v>
       </c>
       <c r="I20">
-        <v>0.7995612398341692</v>
+        <v>0.4480792368408402</v>
       </c>
       <c r="J20">
-        <v>0.07057599592697761</v>
+        <v>0.03202510638446499</v>
       </c>
       <c r="K20">
-        <v>0.4094176885710397</v>
+        <v>1.259805001091365</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4450487010882256</v>
+        <v>0.8326458642393604</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4178231656383673</v>
+        <v>1.267532023499086</v>
       </c>
       <c r="C21">
-        <v>0.06759842189555343</v>
+        <v>0.2266497886626269</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4367615115725911</v>
+        <v>0.5303884735305004</v>
       </c>
       <c r="F21">
-        <v>2.580815691076467</v>
+        <v>2.388767417097341</v>
       </c>
       <c r="G21">
-        <v>0.9364578404488242</v>
+        <v>0.7480704134275413</v>
       </c>
       <c r="H21">
-        <v>0.9583461790631986</v>
+        <v>0.4984847112690858</v>
       </c>
       <c r="I21">
-        <v>0.7947208180374616</v>
+        <v>0.4537472385704717</v>
       </c>
       <c r="J21">
-        <v>0.06974855691612181</v>
+        <v>0.02982630999858715</v>
       </c>
       <c r="K21">
-        <v>0.4562671043754563</v>
+        <v>1.423517038121901</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4724819670893012</v>
+        <v>0.9412453925760715</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4452185484530844</v>
+        <v>1.363250655774692</v>
       </c>
       <c r="C22">
-        <v>0.07240724977391721</v>
+        <v>0.2441144958670094</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4448712012992999</v>
+        <v>0.5679782918528673</v>
       </c>
       <c r="F22">
-        <v>2.602721474684856</v>
+        <v>2.525517898305125</v>
       </c>
       <c r="G22">
-        <v>0.9379902085860437</v>
+        <v>0.7759585153997364</v>
       </c>
       <c r="H22">
-        <v>0.9556610955330314</v>
+        <v>0.5050922087221323</v>
       </c>
       <c r="I22">
-        <v>0.7919381470356726</v>
+        <v>0.4587667163096398</v>
       </c>
       <c r="J22">
-        <v>0.06922797399075353</v>
+        <v>0.02844233519486927</v>
       </c>
       <c r="K22">
-        <v>0.4869097300708063</v>
+        <v>1.531451283044078</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4905570162260275</v>
+        <v>1.013108215679431</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4305948305447487</v>
+        <v>1.312087788274056</v>
       </c>
       <c r="C23">
-        <v>0.06984061097659833</v>
+        <v>0.2347718382402775</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4405288571563659</v>
+        <v>0.5478547935767324</v>
       </c>
       <c r="F23">
-        <v>2.590920955440836</v>
+        <v>2.452080758403412</v>
       </c>
       <c r="G23">
-        <v>0.9371227870410479</v>
+        <v>0.7608547787624644</v>
       </c>
       <c r="H23">
-        <v>0.957058612256759</v>
+        <v>0.5014515146254155</v>
       </c>
       <c r="I23">
-        <v>0.7933884194287657</v>
+        <v>0.4559613148555357</v>
       </c>
       <c r="J23">
-        <v>0.06950397038273604</v>
+        <v>0.02917598135598354</v>
       </c>
       <c r="K23">
-        <v>0.4705530986680913</v>
+        <v>1.473749839684245</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4808967301374238</v>
+        <v>0.9746655120619678</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.375261894779868</v>
+        <v>1.119860409433016</v>
       </c>
       <c r="C24">
-        <v>0.06012155120598095</v>
+        <v>0.1998236664422848</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4243919347623617</v>
+        <v>0.4729077065775158</v>
       </c>
       <c r="F24">
-        <v>2.548621351635546</v>
+        <v>2.183383829100478</v>
       </c>
       <c r="G24">
-        <v>0.9349246189148488</v>
+        <v>0.7082609915419056</v>
       </c>
       <c r="H24">
-        <v>0.9631323837433001</v>
+        <v>0.4900770804344745</v>
       </c>
       <c r="I24">
-        <v>0.7996467728575354</v>
+        <v>0.4480074884171117</v>
       </c>
       <c r="J24">
-        <v>0.07058986082464092</v>
+        <v>0.03206190786411867</v>
       </c>
       <c r="K24">
-        <v>0.4086523825081656</v>
+        <v>1.257143129044749</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4446027917328479</v>
+        <v>0.830884319477434</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3156993931665966</v>
+        <v>0.9150583570551305</v>
       </c>
       <c r="C25">
-        <v>0.04964149280932872</v>
+        <v>0.1628512635734722</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4076480838395824</v>
+        <v>0.394328079580589</v>
       </c>
       <c r="F25">
-        <v>2.508097809685182</v>
+        <v>1.910915050272536</v>
       </c>
       <c r="G25">
-        <v>0.9348638249147427</v>
+        <v>0.66013280145701</v>
       </c>
       <c r="H25">
-        <v>0.9713498394891218</v>
+        <v>0.4824090677801536</v>
       </c>
       <c r="I25">
-        <v>0.8080277960892843</v>
+        <v>0.4445043086991518</v>
       </c>
       <c r="J25">
-        <v>0.07184783019465257</v>
+        <v>0.03538857023107544</v>
       </c>
       <c r="K25">
-        <v>0.3419940992525312</v>
+        <v>1.026687171494103</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4060849867553031</v>
+        <v>0.6789425471859118</v>
       </c>
       <c r="N25">
         <v>0</v>
